--- a/data/trans_orig/AIRE_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7080C65-F5CB-4AA2-9E3A-BA732F69971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39767FAC-FC80-4DFD-B716-1F660BFCC872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C7E719C-9092-43CF-92DB-41EE09D92783}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{93E3C545-13B9-49F0-B2A3-D93B9E784F60}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="480">
   <si>
     <t>Población según lo que estarían dispuestos a pagar al año para que la administración pública ponga en marcha actuaciones (+++) en su municipio/ciudad (o lugar de residencia) que haga reducir la contaminación del aire en 2023 (Tasa respuesta: 51,54%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Más de 50€</t>
@@ -80,1282 +80,1399 @@
     <t>2,36%</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>50 €</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>45 €</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>40 €</t>
+  </si>
+  <si>
+    <t>35 €</t>
+  </si>
+  <si>
+    <t>30 €</t>
+  </si>
+  <si>
+    <t>25 €</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>20 €</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15 €</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,73%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>50 €</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>45 €</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>40 €</t>
-  </si>
-  <si>
-    <t>35 €</t>
-  </si>
-  <si>
-    <t>30 €</t>
-  </si>
-  <si>
-    <t>25 €</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>20 €</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15 €</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>4,17%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>80,05%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1770,8 +1887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10A352A-1DA4-4F64-B94E-72F5D6B5E787}">
-  <dimension ref="A1:Q95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF86B70-A708-4ECE-9887-38ACFD150C0E}">
+  <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1906,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2794</v>
+        <v>2592</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1921,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2794</v>
+        <v>2592</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1942,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3803</v>
+        <v>4210</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1957,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -1972,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>3963</v>
+        <v>4373</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -2212,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1370</v>
+        <v>1293</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>32</v>
@@ -2227,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1370</v>
+        <v>1293</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>34</v>
@@ -2248,7 +2365,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>7536</v>
+        <v>9125</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>37</v>
@@ -2263,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>9638</v>
+        <v>8431</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2278,7 +2395,7 @@
         <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>17175</v>
+        <v>17556</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>43</v>
@@ -2299,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>3718</v>
+        <v>3692</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>47</v>
@@ -2314,184 +2431,184 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1857</v>
+        <v>1734</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>5574</v>
+        <v>5426</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="7">
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>23286</v>
+        <v>28458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>5637</v>
+        <v>5177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>28924</v>
+        <v>33635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7">
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>17636</v>
+        <v>17958</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>31938</v>
+        <v>29098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
       </c>
       <c r="N14" s="7">
-        <v>49574</v>
+        <v>47056</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C15" s="7">
         <v>55</v>
       </c>
       <c r="D15" s="7">
-        <v>121681</v>
+        <v>123927</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H15" s="7">
         <v>72</v>
       </c>
       <c r="I15" s="7">
-        <v>124920</v>
+        <v>108808</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M15" s="7">
         <v>127</v>
       </c>
       <c r="N15" s="7">
-        <v>246600</v>
+        <v>232735</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,51 +2620,51 @@
         <v>80</v>
       </c>
       <c r="D16" s="7">
-        <v>177660</v>
+        <v>187370</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
       </c>
       <c r="I16" s="7">
-        <v>178315</v>
+        <v>157297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>183</v>
       </c>
       <c r="N16" s="7">
-        <v>355975</v>
+        <v>344666</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
@@ -2565,37 +2682,37 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1451</v>
+        <v>1341</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1451</v>
+        <v>1341</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,46 +2724,46 @@
         <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>1692</v>
+        <v>1706</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>3807</v>
+        <v>3635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>5499</v>
+        <v>5341</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2682,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2697,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,46 +2826,46 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>2327</v>
+        <v>2625</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>2487</v>
+        <v>2790</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,37 +2886,37 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>1132</v>
+        <v>1066</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>1132</v>
+        <v>1066</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,46 +2928,46 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>2055</v>
+        <v>1814</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>2700</v>
+        <v>2547</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>4755</v>
+        <v>4361</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,46 +2979,46 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>1159</v>
+        <v>1079</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>2716</v>
+        <v>2642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,46 +3030,46 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>6692</v>
+        <v>6384</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>5086</v>
+        <v>5109</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>11778</v>
+        <v>11494</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,199 +3081,199 @@
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>2494</v>
+        <v>2765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>3247</v>
+        <v>3180</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>5741</v>
+        <v>5945</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="7">
         <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>18464</v>
+        <v>19067</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>8292</v>
+        <v>7609</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
       </c>
       <c r="N26" s="7">
-        <v>26756</v>
+        <v>26676</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C27" s="7">
         <v>22</v>
       </c>
       <c r="D27" s="7">
-        <v>26247</v>
+        <v>24424</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
       </c>
       <c r="I27" s="7">
-        <v>21983</v>
+        <v>20512</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M27" s="7">
         <v>44</v>
       </c>
       <c r="N27" s="7">
-        <v>48230</v>
+        <v>44936</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C28" s="7">
         <v>90</v>
       </c>
       <c r="D28" s="7">
-        <v>129086</v>
+        <v>128936</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>159</v>
       </c>
       <c r="I28" s="7">
-        <v>165818</v>
+        <v>149291</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>249</v>
       </c>
       <c r="N28" s="7">
-        <v>294904</v>
+        <v>278226</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,51 +3285,51 @@
         <v>134</v>
       </c>
       <c r="D29" s="7">
-        <v>188446</v>
+        <v>186824</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H29" s="7">
         <v>209</v>
       </c>
       <c r="I29" s="7">
-        <v>217001</v>
+        <v>197996</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M29" s="7">
         <v>343</v>
       </c>
       <c r="N29" s="7">
-        <v>405447</v>
+        <v>384820</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>10</v>
@@ -3221,46 +3338,46 @@
         <v>6</v>
       </c>
       <c r="D30" s="7">
-        <v>6584</v>
+        <v>6540</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
       </c>
       <c r="I30" s="7">
-        <v>1776</v>
+        <v>1706</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
       </c>
       <c r="N30" s="7">
-        <v>8361</v>
+        <v>8246</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,46 +3389,46 @@
         <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>3498</v>
+        <v>3491</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
       </c>
       <c r="I31" s="7">
-        <v>4012</v>
+        <v>3783</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
       </c>
       <c r="N31" s="7">
-        <v>7509</v>
+        <v>7273</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3347,7 +3464,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3362,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,16 +3491,16 @@
         <v>1</v>
       </c>
       <c r="D33" s="7">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3398,22 +3515,22 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
       </c>
       <c r="N33" s="7">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,37 +3551,37 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>1558</v>
+        <v>1490</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>1558</v>
+        <v>1490</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,46 +3593,46 @@
         <v>4</v>
       </c>
       <c r="D35" s="7">
-        <v>4267</v>
+        <v>4160</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
       </c>
       <c r="I35" s="7">
-        <v>3441</v>
+        <v>3240</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
       </c>
       <c r="N35" s="7">
-        <v>7708</v>
+        <v>7400</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,46 +3644,46 @@
         <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>2363</v>
+        <v>2281</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
       </c>
       <c r="I36" s="7">
-        <v>2444</v>
+        <v>2292</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
       </c>
       <c r="N36" s="7">
-        <v>4807</v>
+        <v>4572</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,46 +3695,46 @@
         <v>4</v>
       </c>
       <c r="D37" s="7">
-        <v>3739</v>
+        <v>4172</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="H37" s="7">
         <v>15</v>
       </c>
       <c r="I37" s="7">
-        <v>11351</v>
+        <v>10597</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>19</v>
       </c>
       <c r="N37" s="7">
-        <v>15090</v>
+        <v>14768</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,199 +3746,199 @@
         <v>7</v>
       </c>
       <c r="D38" s="7">
-        <v>9288</v>
+        <v>9348</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
       </c>
       <c r="I38" s="7">
-        <v>4523</v>
+        <v>4346</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M38" s="7">
         <v>13</v>
       </c>
       <c r="N38" s="7">
-        <v>13811</v>
+        <v>13695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" s="7">
         <v>18</v>
       </c>
       <c r="D39" s="7">
-        <v>18594</v>
+        <v>18228</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="H39" s="7">
         <v>29</v>
       </c>
       <c r="I39" s="7">
-        <v>19427</v>
+        <v>18512</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M39" s="7">
         <v>47</v>
       </c>
       <c r="N39" s="7">
-        <v>38020</v>
+        <v>36740</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C40" s="7">
         <v>41</v>
       </c>
       <c r="D40" s="7">
-        <v>38208</v>
+        <v>36142</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="H40" s="7">
         <v>51</v>
       </c>
       <c r="I40" s="7">
-        <v>29821</v>
+        <v>27564</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="M40" s="7">
         <v>92</v>
       </c>
       <c r="N40" s="7">
-        <v>68029</v>
+        <v>63707</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C41" s="7">
         <v>212</v>
       </c>
       <c r="D41" s="7">
-        <v>218869</v>
+        <v>209841</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H41" s="7">
         <v>291</v>
       </c>
       <c r="I41" s="7">
-        <v>197785</v>
+        <v>183849</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M41" s="7">
         <v>503</v>
       </c>
       <c r="N41" s="7">
-        <v>416655</v>
+        <v>393690</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,51 +3950,51 @@
         <v>298</v>
       </c>
       <c r="D42" s="7">
-        <v>306596</v>
+        <v>295367</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H42" s="7">
         <v>410</v>
       </c>
       <c r="I42" s="7">
-        <v>276139</v>
+        <v>257379</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M42" s="7">
         <v>708</v>
       </c>
       <c r="N42" s="7">
-        <v>582735</v>
+        <v>552746</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>10</v>
@@ -3886,46 +4003,46 @@
         <v>2</v>
       </c>
       <c r="D43" s="7">
-        <v>2219</v>
+        <v>2158</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H43" s="7">
         <v>4</v>
       </c>
       <c r="I43" s="7">
-        <v>2703</v>
+        <v>2567</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="M43" s="7">
         <v>6</v>
       </c>
       <c r="N43" s="7">
-        <v>4922</v>
+        <v>4726</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,46 +4054,46 @@
         <v>4</v>
       </c>
       <c r="D44" s="7">
-        <v>4549</v>
+        <v>4623</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="H44" s="7">
         <v>6</v>
       </c>
       <c r="I44" s="7">
-        <v>4533</v>
+        <v>4168</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="M44" s="7">
         <v>10</v>
       </c>
       <c r="N44" s="7">
-        <v>9082</v>
+        <v>8792</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,7 +4114,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -4012,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -4027,7 +4144,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,46 +4156,46 @@
         <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
       </c>
       <c r="I46" s="7">
-        <v>1167</v>
+        <v>1083</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
       </c>
       <c r="N46" s="7">
-        <v>2313</v>
+        <v>2210</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,37 +4216,37 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
       </c>
       <c r="I47" s="7">
-        <v>792</v>
+        <v>735</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
       </c>
       <c r="N47" s="7">
-        <v>792</v>
+        <v>735</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,46 +4258,46 @@
         <v>4</v>
       </c>
       <c r="D48" s="7">
-        <v>4732</v>
+        <v>4518</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="H48" s="7">
         <v>8</v>
       </c>
       <c r="I48" s="7">
-        <v>5371</v>
+        <v>5124</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="M48" s="7">
         <v>12</v>
       </c>
       <c r="N48" s="7">
-        <v>10103</v>
+        <v>9642</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,46 +4309,46 @@
         <v>2</v>
       </c>
       <c r="D49" s="7">
-        <v>1738</v>
+        <v>1974</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
       </c>
       <c r="I49" s="7">
-        <v>1588</v>
+        <v>1463</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
       </c>
       <c r="N49" s="7">
-        <v>3326</v>
+        <v>3437</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,46 +4360,46 @@
         <v>7</v>
       </c>
       <c r="D50" s="7">
-        <v>8839</v>
+        <v>8655</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="H50" s="7">
         <v>14</v>
       </c>
       <c r="I50" s="7">
-        <v>19089</v>
+        <v>41567</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>63</v>
+        <v>270</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="M50" s="7">
         <v>21</v>
       </c>
       <c r="N50" s="7">
-        <v>27928</v>
+        <v>50222</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,199 +4411,199 @@
         <v>8</v>
       </c>
       <c r="D51" s="7">
-        <v>7421</v>
+        <v>7780</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="H51" s="7">
         <v>5</v>
       </c>
       <c r="I51" s="7">
-        <v>2720</v>
+        <v>2626</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M51" s="7">
         <v>13</v>
       </c>
       <c r="N51" s="7">
-        <v>10141</v>
+        <v>10405</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C52" s="7">
         <v>9</v>
       </c>
       <c r="D52" s="7">
-        <v>8698</v>
+        <v>8357</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="H52" s="7">
         <v>31</v>
       </c>
       <c r="I52" s="7">
-        <v>19183</v>
+        <v>18232</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M52" s="7">
         <v>40</v>
       </c>
       <c r="N52" s="7">
-        <v>27882</v>
+        <v>26588</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C53" s="7">
         <v>55</v>
       </c>
       <c r="D53" s="7">
-        <v>50803</v>
+        <v>46339</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H53" s="7">
         <v>64</v>
       </c>
       <c r="I53" s="7">
-        <v>35732</v>
+        <v>32264</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M53" s="7">
         <v>119</v>
       </c>
       <c r="N53" s="7">
-        <v>86535</v>
+        <v>78602</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C54" s="7">
         <v>249</v>
       </c>
       <c r="D54" s="7">
-        <v>256916</v>
+        <v>248299</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H54" s="7">
         <v>422</v>
       </c>
       <c r="I54" s="7">
-        <v>269620</v>
+        <v>249509</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M54" s="7">
         <v>671</v>
       </c>
       <c r="N54" s="7">
-        <v>526537</v>
+        <v>497808</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,51 +4615,51 @@
         <v>341</v>
       </c>
       <c r="D55" s="7">
-        <v>347062</v>
+        <v>333830</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H55" s="7">
         <v>559</v>
       </c>
       <c r="I55" s="7">
-        <v>362499</v>
+        <v>359337</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M55" s="7">
         <v>900</v>
       </c>
       <c r="N55" s="7">
-        <v>709561</v>
+        <v>693168</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>10</v>
@@ -4551,46 +4668,46 @@
         <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>932</v>
+        <v>859</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>83</v>
+        <v>304</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
       </c>
       <c r="I56" s="7">
-        <v>1412</v>
+        <v>1319</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="M56" s="7">
         <v>3</v>
       </c>
       <c r="N56" s="7">
-        <v>2344</v>
+        <v>2178</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,46 +4719,46 @@
         <v>4</v>
       </c>
       <c r="D57" s="7">
-        <v>4665</v>
+        <v>4512</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H57" s="7">
         <v>2</v>
       </c>
       <c r="I57" s="7">
-        <v>1410</v>
+        <v>1306</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="M57" s="7">
         <v>6</v>
       </c>
       <c r="N57" s="7">
-        <v>6075</v>
+        <v>5818</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>178</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,37 +4779,37 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
       </c>
       <c r="I58" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="M58" s="7">
         <v>1</v>
       </c>
       <c r="N58" s="7">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,46 +4821,46 @@
         <v>1</v>
       </c>
       <c r="D59" s="7">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
       </c>
       <c r="I59" s="7">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
       </c>
       <c r="N59" s="7">
-        <v>864</v>
+        <v>793</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,37 +4881,37 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
       </c>
       <c r="I60" s="7">
-        <v>723</v>
+        <v>659</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>113</v>
+        <v>312</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="M60" s="7">
         <v>1</v>
       </c>
       <c r="N60" s="7">
-        <v>723</v>
+        <v>659</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,46 +4923,46 @@
         <v>4</v>
       </c>
       <c r="D61" s="7">
-        <v>4315</v>
+        <v>4165</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="H61" s="7">
         <v>9</v>
       </c>
       <c r="I61" s="7">
-        <v>5036</v>
+        <v>4793</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="M61" s="7">
         <v>13</v>
       </c>
       <c r="N61" s="7">
-        <v>9351</v>
+        <v>8958</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,46 +4974,46 @@
         <v>1</v>
       </c>
       <c r="D62" s="7">
-        <v>1363</v>
+        <v>1275</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H62" s="7">
         <v>4</v>
       </c>
       <c r="I62" s="7">
-        <v>2555</v>
+        <v>2432</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>311</v>
+        <v>35</v>
       </c>
       <c r="M62" s="7">
         <v>5</v>
       </c>
       <c r="N62" s="7">
-        <v>3918</v>
+        <v>3708</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,46 +5025,46 @@
         <v>3</v>
       </c>
       <c r="D63" s="7">
-        <v>3230</v>
+        <v>3177</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H63" s="7">
         <v>10</v>
       </c>
       <c r="I63" s="7">
-        <v>6108</v>
+        <v>5708</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="M63" s="7">
         <v>13</v>
       </c>
       <c r="N63" s="7">
-        <v>9338</v>
+        <v>8886</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>32</v>
+        <v>278</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,199 +5076,199 @@
         <v>7</v>
       </c>
       <c r="D64" s="7">
-        <v>7416</v>
+        <v>7030</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="H64" s="7">
         <v>8</v>
       </c>
       <c r="I64" s="7">
-        <v>4411</v>
+        <v>4287</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="M64" s="7">
         <v>15</v>
       </c>
       <c r="N64" s="7">
-        <v>11827</v>
+        <v>11317</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C65" s="7">
         <v>13</v>
       </c>
       <c r="D65" s="7">
-        <v>14265</v>
+        <v>13803</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="H65" s="7">
         <v>35</v>
       </c>
       <c r="I65" s="7">
-        <v>19273</v>
+        <v>18015</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>325</v>
+        <v>131</v>
       </c>
       <c r="M65" s="7">
         <v>48</v>
       </c>
       <c r="N65" s="7">
-        <v>33538</v>
+        <v>31818</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>328</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C66" s="7">
         <v>42</v>
       </c>
       <c r="D66" s="7">
-        <v>34355</v>
+        <v>31087</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="H66" s="7">
         <v>68</v>
       </c>
       <c r="I66" s="7">
-        <v>35272</v>
+        <v>32226</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M66" s="7">
         <v>110</v>
       </c>
       <c r="N66" s="7">
-        <v>69627</v>
+        <v>63313</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C67" s="7">
         <v>288</v>
       </c>
       <c r="D67" s="7">
-        <v>257025</v>
+        <v>241027</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="H67" s="7">
         <v>403</v>
       </c>
       <c r="I67" s="7">
-        <v>241873</v>
+        <v>222135</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="M67" s="7">
         <v>691</v>
       </c>
       <c r="N67" s="7">
-        <v>498898</v>
+        <v>463162</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,99 +5280,99 @@
         <v>364</v>
       </c>
       <c r="D68" s="7">
-        <v>327725</v>
+        <v>307098</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H68" s="7">
         <v>544</v>
       </c>
       <c r="I68" s="7">
-        <v>319494</v>
+        <v>294170</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M68" s="7">
         <v>908</v>
       </c>
       <c r="N68" s="7">
-        <v>647219</v>
+        <v>601267</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" s="7">
-        <v>2294</v>
+        <v>1472</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="H69" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" s="7">
-        <v>1966</v>
+        <v>1193</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="M69" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N69" s="7">
-        <v>4260</v>
+        <v>2665</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,49 +5381,49 @@
         <v>18</v>
       </c>
       <c r="C70" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D70" s="7">
-        <v>5349</v>
+        <v>2856</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="H70" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I70" s="7">
-        <v>2175</v>
+        <v>399</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>299</v>
+        <v>21</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="M70" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N70" s="7">
-        <v>7524</v>
+        <v>3255</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,7 +5444,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5342,7 +5459,7 @@
         <v>12</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>242</v>
+        <v>360</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -5357,7 +5474,7 @@
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,7 +5495,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5393,7 +5510,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>242</v>
+        <v>360</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -5408,7 +5525,7 @@
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5444,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>242</v>
+        <v>360</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -5459,7 +5576,7 @@
         <v>12</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,49 +5585,49 @@
         <v>30</v>
       </c>
       <c r="C74" s="7">
+        <v>3</v>
+      </c>
+      <c r="D74" s="7">
+        <v>2449</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H74" s="7">
         <v>5</v>
       </c>
-      <c r="D74" s="7">
-        <v>4158</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H74" s="7">
+      <c r="I74" s="7">
+        <v>1803</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M74" s="7">
         <v>8</v>
       </c>
-      <c r="I74" s="7">
-        <v>3427</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K74" s="7" t="s">
+      <c r="N74" s="7">
+        <v>4252</v>
+      </c>
+      <c r="O74" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L74" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="M74" s="7">
-        <v>13</v>
-      </c>
-      <c r="N74" s="7">
-        <v>7584</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="P74" s="7" t="s">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,49 +5636,49 @@
         <v>31</v>
       </c>
       <c r="C75" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" s="7">
-        <v>3525</v>
+        <v>1743</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>258</v>
+        <v>365</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H75" s="7">
+        <v>5</v>
+      </c>
+      <c r="I75" s="7">
+        <v>2640</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="M75" s="7">
         <v>7</v>
       </c>
-      <c r="I75" s="7">
-        <v>4004</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M75" s="7">
-        <v>11</v>
-      </c>
       <c r="N75" s="7">
-        <v>7529</v>
+        <v>4383</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,49 +5687,49 @@
         <v>36</v>
       </c>
       <c r="C76" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D76" s="7">
-        <v>11229</v>
+        <v>6820</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>198</v>
+        <v>370</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="H76" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I76" s="7">
-        <v>7614</v>
+        <v>6067</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>354</v>
+        <v>174</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="M76" s="7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N76" s="7">
-        <v>18844</v>
+        <v>12887</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,202 +5738,202 @@
         <v>46</v>
       </c>
       <c r="C77" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D77" s="7">
-        <v>6316</v>
+        <v>3864</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H77" s="7">
+        <v>7</v>
+      </c>
+      <c r="I77" s="7">
+        <v>2620</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K77" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H77" s="7">
-        <v>8</v>
-      </c>
-      <c r="I77" s="7">
-        <v>3012</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="L77" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="M77" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N77" s="7">
-        <v>9329</v>
+        <v>6484</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C78" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D78" s="7">
-        <v>13874</v>
+        <v>7621</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="H78" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I78" s="7">
-        <v>13881</v>
+        <v>6085</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="M78" s="7">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N78" s="7">
-        <v>27755</v>
+        <v>13706</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="7">
+        <v>33</v>
+      </c>
+      <c r="D79" s="7">
+        <v>18898</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H79" s="7">
+        <v>38</v>
+      </c>
+      <c r="I79" s="7">
+        <v>15970</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L79" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M79" s="7">
+        <v>71</v>
+      </c>
+      <c r="N79" s="7">
+        <v>34868</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q79" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C79" s="7">
-        <v>61</v>
-      </c>
-      <c r="D79" s="7">
-        <v>38241</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H79" s="7">
-        <v>83</v>
-      </c>
-      <c r="I79" s="7">
-        <v>41529</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M79" s="7">
-        <v>144</v>
-      </c>
-      <c r="N79" s="7">
-        <v>79770</v>
-      </c>
-      <c r="O79" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C80" s="7">
-        <v>421</v>
+        <v>232</v>
       </c>
       <c r="D80" s="7">
-        <v>285011</v>
+        <v>148802</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H80" s="7">
-        <v>760</v>
+        <v>336</v>
       </c>
       <c r="I80" s="7">
-        <v>514398</v>
+        <v>368435</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="M80" s="7">
-        <v>1181</v>
+        <v>568</v>
       </c>
       <c r="N80" s="7">
-        <v>799409</v>
+        <v>517237</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,102 +5942,102 @@
         <v>3</v>
       </c>
       <c r="C81" s="7">
-        <v>546</v>
+        <v>302</v>
       </c>
       <c r="D81" s="7">
-        <v>369998</v>
+        <v>194524</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H81" s="7">
-        <v>918</v>
+        <v>420</v>
       </c>
       <c r="I81" s="7">
-        <v>592006</v>
+        <v>405213</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M81" s="7">
-        <v>1464</v>
+        <v>722</v>
       </c>
       <c r="N81" s="7">
-        <v>962004</v>
+        <v>599737</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D82" s="7">
-        <v>12029</v>
+        <v>627</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>392</v>
+        <v>93</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H82" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I82" s="7">
-        <v>12102</v>
+        <v>591</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="M82" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="N82" s="7">
-        <v>24131</v>
+        <v>1218</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,49 +6046,49 @@
         <v>18</v>
       </c>
       <c r="C83" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D83" s="7">
-        <v>23556</v>
+        <v>2259</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>394</v>
+        <v>245</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>395</v>
+        <v>135</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="H83" s="7">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I83" s="7">
-        <v>16097</v>
+        <v>1581</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>115</v>
+        <v>404</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="M83" s="7">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="N83" s="7">
-        <v>39653</v>
+        <v>3839</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>41</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,37 +6109,37 @@
         <v>12</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="H84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" s="7">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="M84" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84" s="7">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>396</v>
+        <v>11</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,49 +6148,49 @@
         <v>28</v>
       </c>
       <c r="C85" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D85" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>397</v>
+        <v>12</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="H85" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I85" s="7">
-        <v>4198</v>
+        <v>0</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>354</v>
+        <v>34</v>
       </c>
       <c r="M85" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N85" s="7">
-        <v>6850</v>
+        <v>0</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,37 +6211,37 @@
         <v>12</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="H86" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I86" s="7">
-        <v>4204</v>
+        <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>398</v>
+        <v>34</v>
       </c>
       <c r="M86" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N86" s="7">
-        <v>4204</v>
+        <v>0</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,49 +6250,49 @@
         <v>30</v>
       </c>
       <c r="C87" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D87" s="7">
-        <v>19527</v>
+        <v>1523</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H87" s="7">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I87" s="7">
-        <v>19974</v>
+        <v>1371</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>400</v>
+        <v>186</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>107</v>
+        <v>408</v>
       </c>
       <c r="M87" s="7">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="N87" s="7">
-        <v>39501</v>
+        <v>2894</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>168</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,49 +6301,49 @@
         <v>31</v>
       </c>
       <c r="C88" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D88" s="7">
-        <v>10546</v>
+        <v>1624</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>179</v>
+        <v>409</v>
       </c>
       <c r="H88" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I88" s="7">
-        <v>13121</v>
+        <v>1049</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="M88" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="N88" s="7">
-        <v>23666</v>
+        <v>2673</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,49 +6352,49 @@
         <v>36</v>
       </c>
       <c r="C89" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D89" s="7">
-        <v>41266</v>
+        <v>3937</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>403</v>
+        <v>258</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H89" s="7">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="I89" s="7">
-        <v>58887</v>
+        <v>1190</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>406</v>
+        <v>194</v>
       </c>
       <c r="M89" s="7">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="N89" s="7">
-        <v>100152</v>
+        <v>5127</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>407</v>
+        <v>101</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>408</v>
+        <v>186</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,202 +6403,202 @@
         <v>46</v>
       </c>
       <c r="C90" s="7">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D90" s="7">
-        <v>36653</v>
+        <v>2277</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>411</v>
+        <v>264</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="H90" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I90" s="7">
-        <v>19771</v>
+        <v>165</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>413</v>
+        <v>11</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>411</v>
+        <v>305</v>
       </c>
       <c r="M90" s="7">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="N90" s="7">
-        <v>56424</v>
+        <v>2441</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>414</v>
+        <v>126</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>362</v>
+        <v>184</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>415</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C91" s="7">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D91" s="7">
-        <v>97181</v>
+        <v>5306</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="H91" s="7">
+        <v>16</v>
+      </c>
+      <c r="I91" s="7">
+        <v>6849</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="K91" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="H91" s="7">
-        <v>138</v>
-      </c>
-      <c r="I91" s="7">
-        <v>85694</v>
-      </c>
-      <c r="J91" s="7" t="s">
+      <c r="L91" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K91" s="7" t="s">
+      <c r="M91" s="7">
+        <v>25</v>
+      </c>
+      <c r="N91" s="7">
+        <v>12155</v>
+      </c>
+      <c r="O91" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="L91" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M91" s="7">
-        <v>219</v>
-      </c>
-      <c r="N91" s="7">
-        <v>182875</v>
-      </c>
-      <c r="O91" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="P91" s="7" t="s">
-        <v>265</v>
+        <v>382</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>422</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C92" s="7">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="D92" s="7">
-        <v>205490</v>
+        <v>15355</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H92" s="7">
+        <v>45</v>
+      </c>
+      <c r="I92" s="7">
+        <v>20633</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="K92" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="L92" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="H92" s="7">
-        <v>307</v>
-      </c>
-      <c r="I92" s="7">
-        <v>196276</v>
-      </c>
-      <c r="J92" s="7" t="s">
+      <c r="M92" s="7">
+        <v>73</v>
+      </c>
+      <c r="N92" s="7">
+        <v>35988</v>
+      </c>
+      <c r="O92" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K92" s="7" t="s">
+      <c r="P92" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="L92" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M92" s="7">
-        <v>539</v>
-      </c>
-      <c r="N92" s="7">
-        <v>401766</v>
-      </c>
-      <c r="O92" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P92" s="7" t="s">
-        <v>429</v>
-      </c>
       <c r="Q92" s="7" t="s">
-        <v>430</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C93" s="7">
-        <v>1315</v>
+        <v>189</v>
       </c>
       <c r="D93" s="7">
-        <v>1268590</v>
+        <v>117115</v>
       </c>
       <c r="E93" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H93" s="7">
+        <v>424</v>
+      </c>
+      <c r="I93" s="7">
+        <v>202976</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="K93" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="L93" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H93" s="7">
-        <v>2107</v>
-      </c>
-      <c r="I93" s="7">
-        <v>1514414</v>
-      </c>
-      <c r="J93" s="7" t="s">
+      <c r="M93" s="7">
+        <v>613</v>
+      </c>
+      <c r="N93" s="7">
+        <v>320091</v>
+      </c>
+      <c r="O93" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K93" s="7" t="s">
+      <c r="P93" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="L93" s="7" t="s">
+      <c r="Q93" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="M93" s="7">
-        <v>3422</v>
-      </c>
-      <c r="N93" s="7">
-        <v>2783003</v>
-      </c>
-      <c r="O93" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="P93" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q93" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,63 +6607,729 @@
         <v>3</v>
       </c>
       <c r="C94" s="7">
+        <v>244</v>
+      </c>
+      <c r="D94" s="7">
+        <v>150023</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H94" s="7">
+        <v>498</v>
+      </c>
+      <c r="I94" s="7">
+        <v>236404</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M94" s="7">
+        <v>742</v>
+      </c>
+      <c r="N94" s="7">
+        <v>386427</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q94" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="7">
+        <v>12</v>
+      </c>
+      <c r="D95" s="7">
+        <v>11657</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H95" s="7">
+        <v>14</v>
+      </c>
+      <c r="I95" s="7">
+        <v>11310</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M95" s="7">
+        <v>26</v>
+      </c>
+      <c r="N95" s="7">
+        <v>22967</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P95" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q95" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="7">
+        <v>21</v>
+      </c>
+      <c r="D96" s="7">
+        <v>23657</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H96" s="7">
+        <v>22</v>
+      </c>
+      <c r="I96" s="7">
+        <v>15035</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M96" s="7">
+        <v>43</v>
+      </c>
+      <c r="N96" s="7">
+        <v>38691</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P96" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="7">
+        <v>0</v>
+      </c>
+      <c r="D97" s="7">
+        <v>0</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H97" s="7">
+        <v>1</v>
+      </c>
+      <c r="I97" s="7">
+        <v>659</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M97" s="7">
+        <v>1</v>
+      </c>
+      <c r="N97" s="7">
+        <v>659</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="7">
+        <v>4</v>
+      </c>
+      <c r="D98" s="7">
+        <v>2619</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H98" s="7">
+        <v>5</v>
+      </c>
+      <c r="I98" s="7">
+        <v>4339</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M98" s="7">
+        <v>9</v>
+      </c>
+      <c r="N98" s="7">
+        <v>6958</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P98" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q98" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="7">
+        <v>0</v>
+      </c>
+      <c r="D99" s="7">
+        <v>0</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H99" s="7">
+        <v>5</v>
+      </c>
+      <c r="I99" s="7">
+        <v>3950</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M99" s="7">
+        <v>5</v>
+      </c>
+      <c r="N99" s="7">
+        <v>3950</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P99" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="7">
+        <v>18</v>
+      </c>
+      <c r="D100" s="7">
+        <v>18628</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H100" s="7">
+        <v>31</v>
+      </c>
+      <c r="I100" s="7">
+        <v>18878</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M100" s="7">
+        <v>49</v>
+      </c>
+      <c r="N100" s="7">
+        <v>37506</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P100" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="7">
+        <v>10</v>
+      </c>
+      <c r="D101" s="7">
+        <v>10461</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H101" s="7">
+        <v>18</v>
+      </c>
+      <c r="I101" s="7">
+        <v>12249</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M101" s="7">
+        <v>28</v>
+      </c>
+      <c r="N101" s="7">
+        <v>22709</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P101" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q101" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="7">
+        <v>36</v>
+      </c>
+      <c r="D102" s="7">
+        <v>42270</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H102" s="7">
+        <v>63</v>
+      </c>
+      <c r="I102" s="7">
+        <v>78670</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M102" s="7">
+        <v>99</v>
+      </c>
+      <c r="N102" s="7">
+        <v>120940</v>
+      </c>
+      <c r="O102" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P102" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q102" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="7">
+        <v>34</v>
+      </c>
+      <c r="D103" s="7">
+        <v>36755</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H103" s="7">
+        <v>32</v>
+      </c>
+      <c r="I103" s="7">
+        <v>18958</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M103" s="7">
+        <v>66</v>
+      </c>
+      <c r="N103" s="7">
+        <v>55713</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P103" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q103" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="7">
+        <v>81</v>
+      </c>
+      <c r="D104" s="7">
+        <v>100839</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H104" s="7">
+        <v>138</v>
+      </c>
+      <c r="I104" s="7">
+        <v>80479</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M104" s="7">
+        <v>219</v>
+      </c>
+      <c r="N104" s="7">
+        <v>181318</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P104" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q104" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" s="7">
+        <v>232</v>
+      </c>
+      <c r="D105" s="7">
+        <v>190204</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H105" s="7">
+        <v>307</v>
+      </c>
+      <c r="I105" s="7">
+        <v>178265</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="M105" s="7">
+        <v>539</v>
+      </c>
+      <c r="N105" s="7">
+        <v>368470</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P105" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q105" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="7">
+        <v>1315</v>
+      </c>
+      <c r="D106" s="7">
+        <v>1217946</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H106" s="7">
+        <v>2107</v>
+      </c>
+      <c r="I106" s="7">
+        <v>1485002</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="M106" s="7">
+        <v>3422</v>
+      </c>
+      <c r="N106" s="7">
+        <v>2702949</v>
+      </c>
+      <c r="O106" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P106" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q106" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="7">
         <v>1763</v>
       </c>
-      <c r="D94" s="7">
-        <v>1717488</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H94" s="7">
+      <c r="D107" s="7">
+        <v>1655035</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H107" s="7">
         <v>2743</v>
       </c>
-      <c r="I94" s="7">
-        <v>1945454</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L94" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M94" s="7">
+      <c r="I107" s="7">
+        <v>1907795</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M107" s="7">
         <v>4506</v>
       </c>
-      <c r="N94" s="7">
-        <v>3662941</v>
-      </c>
-      <c r="O94" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P94" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q94" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>440</v>
+      <c r="N107" s="7">
+        <v>3562831</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P107" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q107" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A30:A42"/>
     <mergeCell ref="A43:A55"/>
     <mergeCell ref="A56:A68"/>
     <mergeCell ref="A69:A81"/>
     <mergeCell ref="A82:A94"/>
+    <mergeCell ref="A95:A107"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
